--- a/cms_report/outstanding_dues_report.xlsx
+++ b/cms_report/outstanding_dues_report.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,30 +1342,30 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Faculty of MBS</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>MUST business School</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>19,989,112</t>
         </is>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>8,865,163</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>221</t>
         </is>
@@ -1381,13 +1381,21 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37">
-        <f>SUM(E3:E35)</f>
+        <f>SUM(E3:E37)</f>
         <v/>
       </c>
       <c r="F37">
-        <f>SUM(F3:F35)</f>
+        <f>SUM(F3:F37)</f>
         <v/>
       </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
